--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanNotYet.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanNotYet.xlsx
@@ -1,36 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F5F4CF-7116-4142-8A0F-DA30EF4109DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C121A0A5-C24A-4630-8E76-1A7754A3F597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="20880" windowHeight="11064" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
   <si>
     <t>備註說明</t>
   </si>
@@ -51,22 +42,22 @@
   </si>
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Key ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>讀取Key條件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>其他ORDER條件</t>
   </si>
   <si>
     <t>Parent SEG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>建檔人員</t>
@@ -85,11 +76,11 @@
   </si>
   <si>
     <t>建檔日期時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>最後更新日期時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PrimaryKey</t>
@@ -108,58 +99,58 @@
   </si>
   <si>
     <t>Table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UNI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>FunNm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CreateDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CustNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>FacmNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CustNo,FacmNo</t>
   </si>
   <si>
     <t>CustNo,FacmNo,NotYetCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>齊件日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>銷號日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CreateEmpNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
@@ -169,107 +160,107 @@
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>LoanNotYet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>FacMain(CustNo,FacmNo)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DECIMALD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DECIMALD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NotYetCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>未齊件管理檔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NVARCHAR2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>findCustNoEq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CustNo =</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>FacmNo asc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CustNo = ,AND FacmNo = ,AND NotYetCode =</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>notYetCustNoEq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>notYetCodeFisrt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CustNo asc,FacmNo asc,NotYetCode asc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ReMark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>備註</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CloseDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CustNo = ,AND FacmNo &gt;= ,AND FacmNo &lt;= ,AND YetDate&gt;= ,AND YetDate&lt;= ,AND CloseDate&gt;= ,AND CloseDate&lt;=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>allNoClose</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>YetDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CloseDate = ,AND YetDate &lt;=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CustNo asc,FacmNo asc,YetDate asc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>共用代碼檔
@@ -293,19 +284,37 @@
 18:謄本
 20:定存單
 99:其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BranchNo</t>
+  </si>
+  <si>
+    <t>單位別</t>
+  </si>
+  <si>
+    <t>20230731智偉增加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -358,8 +367,15 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,6 +385,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,117 +485,127 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{1E79D479-5EC7-47CE-85EC-95CB248A998A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -589,9 +621,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -629,9 +661,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -664,26 +696,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -716,26 +731,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -909,28 +907,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="26" style="24" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="27" customWidth="1"/>
-    <col min="5" max="6" width="4.6640625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="39.21875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="26" style="22" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="25" customWidth="1"/>
+    <col min="5" max="6" width="4.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="39.21875" style="19" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="3" t="s">
         <v>42</v>
       </c>
@@ -942,10 +940,10 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
@@ -957,10 +955,10 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="12" t="s">
         <v>32</v>
       </c>
@@ -968,65 +966,65 @@
         <v>25</v>
       </c>
       <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="15"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="4"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="15"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="1:7" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -1038,194 +1036,218 @@
       <c r="F8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="A9" s="19">
         <v>1</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="32">
         <v>7</v>
       </c>
-      <c r="G9" s="23"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="A10" s="19">
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="32">
         <v>3</v>
       </c>
-      <c r="G10" s="23"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="A11" s="19">
         <f>A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="32">
         <v>2</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="24" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="A12" s="19">
         <f>A11+1</f>
         <v>4</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="32">
         <v>8</v>
       </c>
-      <c r="G12" s="23"/>
+      <c r="G12" s="21"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="A13" s="19">
         <f>A12+1</f>
         <v>5</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="32">
         <v>8</v>
       </c>
-      <c r="G13" s="23"/>
+      <c r="G13" s="21"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+      <c r="A14" s="19">
         <f>A13+1</f>
         <v>6</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="32">
         <v>80</v>
       </c>
-      <c r="G14" s="23"/>
+      <c r="G14" s="21"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
+      <c r="A15" s="19">
         <f t="shared" ref="A15:A18" si="0">A14+1</f>
         <v>7</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="22"/>
+      <c r="E15" s="32"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
+      <c r="A16" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="32">
         <v>6</v>
       </c>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21">
+    <row r="17" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="32" t="s">
         <v>40</v>
       </c>
+      <c r="E17" s="32"/>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21">
+    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="32">
         <v>6</v>
       </c>
       <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="34">
+        <v>11</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="35">
+        <v>4</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="7" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1237,7 +1259,7 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:B5"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1313,7 +1335,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanNotYet.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanNotYet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C121A0A5-C24A-4630-8E76-1A7754A3F597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFA5F97-1A8D-42A4-AECD-4BFA269608E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>備註說明</t>
   </si>
@@ -160,14 +160,6 @@
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -295,6 +287,9 @@
   <si>
     <t>20230731智偉增加</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -493,7 +488,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -572,6 +567,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -589,18 +593,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -925,25 +917,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
@@ -955,10 +947,10 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="12" t="s">
         <v>32</v>
       </c>
@@ -970,12 +962,12 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>31</v>
@@ -985,10 +977,10 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="14"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -996,10 +988,10 @@
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="14"/>
       <c r="D6" s="4"/>
       <c r="E6" s="13"/>
@@ -1007,10 +999,10 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="14"/>
       <c r="D7" s="4"/>
       <c r="E7" s="15"/>
@@ -1050,10 +1042,10 @@
       <c r="C9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="14">
         <v>7</v>
       </c>
       <c r="G9" s="21"/>
@@ -1069,10 +1061,10 @@
       <c r="C10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="14">
         <v>3</v>
       </c>
       <c r="G10" s="21"/>
@@ -1083,19 +1075,19 @@
         <v>3</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="32">
+      <c r="D11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="14">
         <v>2</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1104,15 +1096,15 @@
         <v>4</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="32">
+      <c r="D12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="14">
         <v>8</v>
       </c>
       <c r="G12" s="21"/>
@@ -1123,15 +1115,15 @@
         <v>5</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="32">
+      <c r="D13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="14">
         <v>8</v>
       </c>
       <c r="G13" s="21"/>
@@ -1142,15 +1134,15 @@
         <v>6</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="32">
+        <v>56</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="14">
         <v>80</v>
       </c>
       <c r="G14" s="21"/>
@@ -1166,10 +1158,10 @@
       <c r="C15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="32"/>
+      <c r="D15" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="14"/>
       <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1183,10 +1175,10 @@
       <c r="C16" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="14">
         <v>6</v>
       </c>
       <c r="G16" s="12"/>
@@ -1202,10 +1194,10 @@
       <c r="C17" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="32"/>
+      <c r="D17" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="14"/>
       <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1219,34 +1211,34 @@
       <c r="C18" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="14">
         <v>6</v>
       </c>
       <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="34">
+      <c r="A19" s="27">
         <v>11</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="28">
+        <v>4</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="35">
-        <v>4</v>
-      </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1295,43 +1287,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
